--- a/inst/shiny-examples/KDHEtools/data/KS_MMI_Flags_20230712.xlsx
+++ b/inst/shiny-examples/KDHEtools/data/KS_MMI_Flags_20230712.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen.Stamp\Documents\Kansas_MMI\ShinyApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E85DE-86F9-4601-9856-0F5CC1BAA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{633E85DE-86F9-4601-9856-0F5CC1BAA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB35021D-6286-410B-B8CE-D551BEEF6B57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A2EE36CF-3D2C-4488-9BDB-FB5FECFC5B2C}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="SampleInfo" sheetId="3" r:id="rId2"/>
     <sheet name="BugMetrics" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site!$A$1:$F$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,14 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -513,29 +513,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -851,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457609BE-99C6-4EED-87AA-895E1A40F3BE}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,6 +1586,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F37" xr:uid="{457609BE-99C6-4EED-87AA-895E1A40F3BE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1615,7 +1596,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F7" sqref="F7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1681,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1792,7 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>2.6</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1991,7 +1972,7 @@
       <c r="D14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="1">
         <v>40</v>
       </c>
       <c r="F14" t="s">
@@ -2011,7 +1992,7 @@
       <c r="D15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="1">
         <v>40</v>
       </c>
       <c r="F15" t="s">
@@ -2023,19 +2004,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$G2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
@@ -2043,7 +2014,7 @@
       <formula>$G8=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G14">
+  <conditionalFormatting sqref="G2:G14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
